--- a/negative posts label data.xlsx
+++ b/negative posts label data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>Pristine</t>
   </si>
@@ -211,16 +211,59 @@
   </si>
   <si>
     <t>), 1BR, 2700, Contact Info:Agent: Paul Linder, Prestige Rental SolutionsEmail: show contact infoPhone: show contact infoYGL MLS ID: 71919404Brand new building built in 2009, this sunny corner unit has three walls of windows!Nestled on dreamy Worcester St. right next to a school (so free commuter parking from 5:00pm-6:30am on weekdays and all day on the weekends) along with plentiful resident street parking and numerous free 2-hour parking spaces.All new appliances and modern kitchen/bath, WASHER&amp;DRIER IN UNIT, with a beautiful deck attached to dining area.Secure electronic keypad building entry.Central Heat/AC. No students.Will consider small pets!</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>heading</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>isDiscriminatory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -243,13 +286,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H20"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -593,239 +640,285 @@
     <col min="7" max="7" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G14" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" t="s">
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G16" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -833,16 +926,16 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -850,16 +943,16 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -867,40 +960,24 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
